--- a/TEAM-BLAUGE_Dokumentation/Projekt_Dokumentation.xlsx
+++ b/TEAM-BLAUGE_Dokumentation/Projekt_Dokumentation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\withakea\Desktop\TEAM-BLAUGE_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSUsers\withakea\Berufsschule\Lehrjahr_3\Programmiertechnik\workspace_Projekt\TeamBlauge-Client\TEAM-BLAUGE_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21084" windowHeight="4440" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21084" windowHeight="4440" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemeine Projektinfos" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="110">
   <si>
     <t>Gruppeneinteilung &amp; Rollenvergabe</t>
   </si>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>SSL-Zertifizierung in JAVA</t>
+  </si>
+  <si>
+    <t>Aufsetzen RaspberryPi als Server</t>
+  </si>
+  <si>
+    <t>RMI-Methoden</t>
+  </si>
+  <si>
+    <t>Schulnetzwerk</t>
+  </si>
+  <si>
+    <t>Kombination Conti-Rechner / Schulnetzwerk</t>
+  </si>
+  <si>
+    <t>LDAP-Methoden zur Authentifizierung</t>
+  </si>
+  <si>
+    <t>Passwort-Vergleich funktioniert nicht</t>
+  </si>
+  <si>
+    <t>RMI-Client-Server-Architektur</t>
+  </si>
+  <si>
+    <t>Tutorials zur Erlernung von RMI</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1065,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,8 +1229,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -1221,7 +1249,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1413,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="E24" s="17"/>
     </row>
   </sheetData>
@@ -1400,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,10 +1597,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="E24" s="17"/>
     </row>
   </sheetData>
@@ -1578,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,11 +1781,26 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1758,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,6 +1928,7 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
@@ -1925,11 +1977,26 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4000,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4185,7 +4252,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4349,8 +4416,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
